--- a/dbc/CAN_VARIANT/DemoAsrNM.xlsx
+++ b/dbc/CAN_VARIANT/DemoAsrNM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="154">
   <si>
     <t>Result</t>
   </si>
@@ -2311,11 +2311,11 @@
       <c r="C2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <v>2000</v>
@@ -2351,11 +2351,11 @@
       <c r="C4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>46</v>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>1500</v>
@@ -2391,11 +2391,11 @@
       <c r="C6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>3200</v>
@@ -2431,11 +2431,11 @@
       <c r="C8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>640</v>
@@ -2471,11 +2471,11 @@
       <c r="C10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>46</v>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000000</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2511,11 +2511,11 @@
       <c r="C12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>128</v>
       </c>
       <c r="F12" s="3">
         <v>64</v>
